--- a/Desarrollo/BiblioTech/documentacion/Product Backlog.xlsx
+++ b/Desarrollo/BiblioTech/documentacion/Product Backlog.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOLA MUNDO\Desktop\FISI 2021-1\GESTION\GRUPAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNMSM\Ciclo VIII\Taller Const\Proyecto\CGNSTECH\Desarrollo\BiblioTech\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58EE616D-DDD7-4D1D-8A63-959BD1F3DF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="255" windowWidth="15180" windowHeight="8355" tabRatio="522"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog del Producto" sheetId="8" r:id="rId1"/>
     <sheet name="Iteracion" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Backlog del Producto'!$B:$J</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Backlog del Producto'!$B:$I</definedName>
     <definedName name="AverageSpeedLastEight">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="AverageSpeedRealized">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="AverageSpeedWorstThree">OFFSET(#REF!,1,0,#REF!,1)</definedName>
@@ -30,13 +31,13 @@
     <definedName name="PBCurrentBottom">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="PBTrend">OFFSET(#REF!,1,0,#REF!,1)</definedName>
     <definedName name="PlannedSpeed">OFFSET(#REF!,1,0,#REF!,1)</definedName>
-    <definedName name="ProductBacklog">'Backlog del Producto'!$B$5:$J$180</definedName>
+    <definedName name="ProductBacklog">'Backlog del Producto'!$B$5:$I$180</definedName>
     <definedName name="RealizedSpeed">OFFSET(#REF!,1,0,#REF!,1)</definedName>
-    <definedName name="Sprint">'Backlog del Producto'!$H$7:$H$180</definedName>
+    <definedName name="Sprint">'Backlog del Producto'!$G$7:$G$180</definedName>
     <definedName name="SprintCount">#REF!</definedName>
     <definedName name="SprintsInTrend">#REF!</definedName>
     <definedName name="SprintTasks">#REF!</definedName>
-    <definedName name="Status">'Backlog del Producto'!$I$7:$I$180</definedName>
+    <definedName name="Status">'Backlog del Producto'!$H$7:$H$180</definedName>
     <definedName name="StoryName">'Backlog del Producto'!#REF!</definedName>
     <definedName name="TaskRows">#REF!</definedName>
     <definedName name="TaskStatus">#REF!</definedName>
@@ -46,18 +47,18 @@
     <definedName name="TrendOffset">#REF!</definedName>
     <definedName name="TrendSprintCount">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Petri Heiramo</author>
     <author>Hector Bravo Consultor GE</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +71,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="1" shapeId="0">
+    <comment ref="C6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0">
+    <comment ref="E6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0" shapeId="0">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -129,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0">
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="91">
   <si>
     <t>Estado</t>
   </si>
@@ -224,9 +225,6 @@
     <t>ID Tarea</t>
   </si>
   <si>
-    <t>OTROS DATOS DE LA HISTORIA DE USUARIO O TAREA</t>
-  </si>
-  <si>
     <t>TA-1.1</t>
   </si>
   <si>
@@ -236,9 +234,6 @@
     <t>TA-1.3</t>
   </si>
   <si>
-    <t>Respopnsable</t>
-  </si>
-  <si>
     <t>HU-09</t>
   </si>
   <si>
@@ -435,9 +430,6 @@
   </si>
   <si>
     <t>Iteración</t>
-  </si>
-  <si>
-    <t>García Gamboa Martín</t>
   </si>
   <si>
     <t>No planeado</t>
@@ -449,7 +441,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -674,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -734,9 +726,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -804,6 +793,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -815,36 +825,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="28">
     <dxf>
       <font>
         <b/>
@@ -896,28 +882,6 @@
         <extend val="0"/>
         <color indexed="54"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor indexed="10"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1457,14 +1421,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M70"/>
+  <dimension ref="B1:L70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E12" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1473,984 +1437,892 @@
     <col min="2" max="2" width="23.140625" style="5" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="46.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="39.5703125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="6" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="6"/>
+    <col min="5" max="5" width="10.28515625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="39.5703125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="6" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="10" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="2:13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="2:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="36"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="28"/>
+      <c r="C2" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="13"/>
+      <c r="L2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="39" t="s">
+    <row r="3" spans="2:12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="49"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8">
+        <v>7</v>
+      </c>
+      <c r="F7" s="8">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="52"/>
+      <c r="C8" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="8">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="8">
+        <v>7</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B10" s="54"/>
+      <c r="C10" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="8">
+        <v>8</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="9"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="54"/>
+      <c r="C11" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="8">
+        <v>7</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="9"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="55"/>
+      <c r="C12" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="8">
+        <v>7</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="8">
+        <v>7</v>
+      </c>
+      <c r="F13" s="8">
+        <v>3</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="54"/>
+      <c r="C14" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="8">
+        <v>8</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="55"/>
+      <c r="C15" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="8">
+        <v>8</v>
+      </c>
+      <c r="F15" s="8">
+        <v>5</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8">
+        <v>7</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="54"/>
+      <c r="C17" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="8">
+        <v>8</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18" s="55"/>
+      <c r="C18" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="8">
+        <v>8</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="8">
+        <v>7</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3</v>
+      </c>
+      <c r="G19" s="8">
+        <v>2</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="54"/>
+      <c r="C20" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="10" t="s">
+      <c r="E20" s="8">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="F20" s="8">
+        <v>3</v>
+      </c>
+      <c r="G20" s="8">
+        <v>2</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="55"/>
+      <c r="C21" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="8">
+        <v>7</v>
+      </c>
+      <c r="F21" s="8">
+        <v>6</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="8">
-        <v>7</v>
-      </c>
-      <c r="G7" s="8">
+      <c r="E22" s="8">
+        <v>5</v>
+      </c>
+      <c r="F22" s="8">
         <v>3</v>
-      </c>
-      <c r="H7" s="8">
-        <v>1</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="52"/>
-      <c r="C8" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="8">
-        <v>8</v>
-      </c>
-      <c r="G8" s="8">
-        <v>3</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="8">
-        <v>7</v>
-      </c>
-      <c r="G9" s="8">
-        <v>3</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="48"/>
-      <c r="C10" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="8">
-        <v>8</v>
-      </c>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="48"/>
-      <c r="C11" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="8">
-        <v>7</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="49"/>
-      <c r="C12" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="8">
-        <v>7</v>
-      </c>
-      <c r="G12" s="8">
-        <v>2</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="8">
-        <v>7</v>
-      </c>
-      <c r="G13" s="8">
-        <v>3</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
-      <c r="C14" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="8">
-        <v>8</v>
-      </c>
-      <c r="G14" s="8">
-        <v>2</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="49"/>
-      <c r="C15" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="8">
-        <v>8</v>
-      </c>
-      <c r="G15" s="8">
-        <v>5</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="8">
-        <v>7</v>
-      </c>
-      <c r="G16" s="8">
-        <v>3</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="48"/>
-      <c r="C17" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="8">
-        <v>8</v>
-      </c>
-      <c r="G17" s="8">
-        <v>2</v>
-      </c>
-      <c r="H17" s="8">
-        <v>1</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="49"/>
-      <c r="C18" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="8">
-        <v>8</v>
-      </c>
-      <c r="G18" s="8">
-        <v>2</v>
-      </c>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="23"/>
-      <c r="F19" s="8">
-        <v>7</v>
-      </c>
-      <c r="G19" s="8">
-        <v>3</v>
-      </c>
-      <c r="H19" s="8">
-        <v>2</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="48"/>
-      <c r="C20" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F20" s="8">
-        <v>7</v>
-      </c>
-      <c r="G20" s="8">
-        <v>3</v>
-      </c>
-      <c r="H20" s="8">
-        <v>2</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="49"/>
-      <c r="C21" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="8">
-        <v>7</v>
-      </c>
-      <c r="G21" s="8">
-        <v>6</v>
-      </c>
-      <c r="H21" s="8">
-        <v>2</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="23"/>
-      <c r="F22" s="8">
-        <v>5</v>
       </c>
       <c r="G22" s="8">
         <v>3</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="56"/>
+      <c r="C23" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="8">
+        <v>5</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2</v>
+      </c>
+      <c r="G23" s="8">
         <v>3</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="H23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="50"/>
-      <c r="C23" s="42" t="s">
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="56"/>
+      <c r="C24" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="8">
+        <v>5</v>
+      </c>
+      <c r="F24" s="8">
+        <v>2</v>
+      </c>
+      <c r="G24" s="8">
+        <v>3</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="56"/>
+      <c r="C25" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="38" t="s">
+      <c r="D25" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="E25" s="8">
         <v>5</v>
       </c>
-      <c r="G23" s="8">
+      <c r="F25" s="8">
         <v>2</v>
       </c>
-      <c r="H23" s="8">
+      <c r="G25" s="8">
         <v>3</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="50"/>
-      <c r="C24" s="42" t="s">
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="56"/>
+      <c r="C26" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="38" t="s">
+      <c r="D26" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="8">
+        <v>5</v>
+      </c>
+      <c r="F26" s="8">
+        <v>2</v>
+      </c>
+      <c r="G26" s="8">
+        <v>3</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F24" s="8">
+      <c r="C27" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="8">
         <v>5</v>
       </c>
-      <c r="G24" s="8">
+      <c r="F27" s="8">
         <v>2</v>
       </c>
-      <c r="H24" s="8">
+      <c r="G27" s="8">
         <v>3</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="50"/>
-      <c r="C25" s="42" t="s">
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="54"/>
+      <c r="C28" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F25" s="8">
+      <c r="D28" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="8">
         <v>5</v>
       </c>
-      <c r="G25" s="8">
+      <c r="F28" s="8">
+        <v>4</v>
+      </c>
+      <c r="G28" s="8">
+        <v>3</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="54"/>
+      <c r="C29" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="8">
+        <v>5</v>
+      </c>
+      <c r="F29" s="8">
         <v>2</v>
       </c>
-      <c r="H25" s="8">
+      <c r="G29" s="8">
         <v>3</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="50"/>
-      <c r="C26" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="8">
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="55"/>
+      <c r="C30" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="8">
         <v>5</v>
       </c>
-      <c r="G26" s="8">
+      <c r="F30" s="8">
         <v>2</v>
       </c>
-      <c r="H26" s="8">
+      <c r="G30" s="8">
         <v>3</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="C27" s="42" t="s">
+      <c r="I30" s="9"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="23"/>
-      <c r="F27" s="8">
+      <c r="C31" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="8">
         <v>5</v>
       </c>
-      <c r="G27" s="8">
+      <c r="F31" s="8">
         <v>2</v>
       </c>
-      <c r="H27" s="8">
+      <c r="G31" s="8">
         <v>3</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="48"/>
-      <c r="C28" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="38" t="s">
+      <c r="I31" s="9"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32" s="54"/>
+      <c r="C32" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="8">
+        <v>5</v>
+      </c>
+      <c r="F32" s="8">
+        <v>2</v>
+      </c>
+      <c r="G32" s="8">
+        <v>3</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B33" s="55"/>
+      <c r="C33" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F28" s="8">
+      <c r="E33" s="8">
         <v>5</v>
       </c>
-      <c r="G28" s="8">
-        <v>4</v>
-      </c>
-      <c r="H28" s="8">
+      <c r="F33" s="8">
+        <v>2</v>
+      </c>
+      <c r="G33" s="8">
         <v>3</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="48"/>
-      <c r="C29" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29" s="8">
-        <v>5</v>
-      </c>
-      <c r="G29" s="8">
-        <v>2</v>
-      </c>
-      <c r="H29" s="8">
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B34" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" s="8">
         <v>3</v>
       </c>
-      <c r="I29" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="49"/>
-      <c r="C30" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F30" s="8">
-        <v>5</v>
-      </c>
-      <c r="G30" s="8">
-        <v>2</v>
-      </c>
-      <c r="H30" s="8">
-        <v>3</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="9"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="23"/>
-      <c r="F31" s="8">
-        <v>5</v>
-      </c>
-      <c r="G31" s="8">
-        <v>2</v>
-      </c>
-      <c r="H31" s="8">
-        <v>3</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="9"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="48"/>
-      <c r="C32" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F32" s="8">
-        <v>5</v>
-      </c>
-      <c r="G32" s="8">
-        <v>2</v>
-      </c>
-      <c r="H32" s="8">
-        <v>3</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="9"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="49"/>
-      <c r="C33" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F33" s="8">
-        <v>5</v>
-      </c>
-      <c r="G33" s="8">
-        <v>2</v>
-      </c>
-      <c r="H33" s="8">
-        <v>3</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="9"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="23"/>
       <c r="F34" s="8">
         <v>3</v>
       </c>
       <c r="G34" s="8">
+        <v>4</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B35" s="55"/>
+      <c r="C35" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="8">
         <v>3</v>
       </c>
-      <c r="H34" s="8">
+      <c r="F35" s="8">
+        <v>2</v>
+      </c>
+      <c r="G35" s="8">
         <v>4</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J34" s="9"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="49"/>
-      <c r="C35" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="38" t="s">
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B36" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E35" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="8">
+      <c r="D36" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="8">
         <v>3</v>
       </c>
-      <c r="G35" s="8">
+      <c r="F36" s="8">
         <v>2</v>
       </c>
-      <c r="H35" s="8">
+      <c r="G36" s="8">
         <v>4</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="9"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="47" t="s">
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B37" s="55"/>
+      <c r="C37" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E36" s="23"/>
-      <c r="F36" s="8">
+      <c r="E37" s="8">
         <v>3</v>
       </c>
-      <c r="G36" s="8">
-        <v>2</v>
-      </c>
-      <c r="H36" s="8">
+      <c r="F37" s="8">
         <v>4</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="9"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="49"/>
-      <c r="C37" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="F37" s="8">
-        <v>3</v>
       </c>
       <c r="G37" s="8">
         <v>4</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B38" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="8">
+        <v>3</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2</v>
+      </c>
+      <c r="G38" s="8">
         <v>4</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J37" s="9"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="8">
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B39" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="8">
         <v>3</v>
       </c>
-      <c r="G38" s="8">
+      <c r="F39" s="8">
         <v>2</v>
       </c>
-      <c r="H38" s="8">
-        <v>4</v>
-      </c>
-      <c r="I38" s="8" t="s">
+      <c r="G39" s="8"/>
+      <c r="H39" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J38" s="9"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B39" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="23"/>
-      <c r="F39" s="8">
-        <v>3</v>
-      </c>
-      <c r="G39" s="8">
-        <v>2</v>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" s="9"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="45"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="9"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B40" s="44"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="9"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="9"/>
+      <c r="I40" s="9"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="9"/>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="I41" s="9"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.2">
       <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-    </row>
-    <row r="59" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J59" s="7"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
+      <c r="I59" s="7"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
@@ -2458,118 +2330,106 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J59:J60">
-    <cfRule type="expression" dxfId="30" priority="31" stopIfTrue="1">
+  <conditionalFormatting sqref="I59:I60">
+    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="32" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="33" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="expression" dxfId="27" priority="34" stopIfTrue="1">
+  <conditionalFormatting sqref="I24">
+    <cfRule type="expression" dxfId="24" priority="34" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="35" stopIfTrue="1">
       <formula>#REF!="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="36" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J70">
-    <cfRule type="expression" dxfId="24" priority="79" stopIfTrue="1">
-      <formula>$I60="Done"</formula>
+  <conditionalFormatting sqref="I70">
+    <cfRule type="expression" dxfId="21" priority="79" stopIfTrue="1">
+      <formula>$H60="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="80" stopIfTrue="1">
-      <formula>$I60="Ongoing"</formula>
+    <cfRule type="expression" dxfId="20" priority="80" stopIfTrue="1">
+      <formula>$H60="Ongoing"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="81" stopIfTrue="1">
-      <formula>$I60="Removed"</formula>
+    <cfRule type="expression" dxfId="19" priority="81" stopIfTrue="1">
+      <formula>$H60="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B7:C7 B9:E9 B27:E27 C23:E26 C8:E8 B13:E13 C10:E12 B16:E16 C14:E15 B19:E19 C17:E18 B22:E22 C20:E21 B31:E31 C28:E30 B34:E34 C32:E33 B36:E36 C35:E35 B38:E115 C37:E37 F7:J115">
-    <cfRule type="expression" dxfId="21" priority="37" stopIfTrue="1">
-      <formula>$I7="Terminado"</formula>
+  <conditionalFormatting sqref="B7:C7 B9:D9 B27:D27 C23:D26 C8:D8 B13:D13 C10:D12 B16:D16 C14:D15 B19:D19 C17:D18 B22:D22 C20:D21 B31:D31 C28:D30 B34:D34 C32:D33 B36:D36 C35:D35 B38:D115 C37:D37 E7:I115">
+    <cfRule type="expression" dxfId="18" priority="37" stopIfTrue="1">
+      <formula>$H7="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="38" stopIfTrue="1">
-      <formula>$I7="En Progreso"</formula>
+    <cfRule type="expression" dxfId="17" priority="38" stopIfTrue="1">
+      <formula>$H7="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="39" stopIfTrue="1">
-      <formula>$I7="Eliminado"</formula>
+    <cfRule type="expression" dxfId="16" priority="39" stopIfTrue="1">
+      <formula>$H7="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="18" priority="85" stopIfTrue="1">
-      <formula>$I9="Done"</formula>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="expression" dxfId="15" priority="85" stopIfTrue="1">
+      <formula>$H9="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="86" stopIfTrue="1">
-      <formula>$I9="In Progress"</formula>
+    <cfRule type="expression" dxfId="14" priority="86" stopIfTrue="1">
+      <formula>$H9="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="87" stopIfTrue="1">
-      <formula>$I9="Removed"</formula>
+    <cfRule type="expression" dxfId="13" priority="87" stopIfTrue="1">
+      <formula>$H9="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1">
-    <cfRule type="expression" dxfId="15" priority="103" stopIfTrue="1">
+  <conditionalFormatting sqref="K1">
+    <cfRule type="expression" dxfId="12" priority="103" stopIfTrue="1">
       <formula>#REF!="Done"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="104" stopIfTrue="1">
       <formula>#REF!="In Progress"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="105" stopIfTrue="1">
       <formula>#REF!="Removed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
-      <formula>$I7="Terminado"</formula>
+    <cfRule type="expression" dxfId="9" priority="4" stopIfTrue="1">
+      <formula>$H7="Terminado"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
-      <formula>$I7="En Progreso"</formula>
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
+      <formula>$H7="En Progreso"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
-      <formula>$I7="Eliminado"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
-      <formula>$I7="Terminado"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2" stopIfTrue="1">
-      <formula>$I7="En Progreso"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
-      <formula>$I7="Eliminado"</formula>
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+      <formula>$H7="Eliminado"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="I71:I180 I6:I69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H71:H180 H6:H69" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Por Hacer,En Progreso,Terminado,Eliminado"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E41" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1,2,3,4,5,6,7,8,9,10"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2581,7 +2441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:I12"/>
   <sheetViews>
@@ -2604,25 +2464,25 @@
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="25" t="s">
+      <c r="B2" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="24" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1"/>
@@ -2631,7 +2491,7 @@
       <c r="B3" s="15">
         <v>1</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
         <v>43966</v>
       </c>
       <c r="D3" s="18">
@@ -2641,7 +2501,7 @@
         <v>43966</v>
       </c>
       <c r="F3" s="15">
-        <f>IF(B3="","",SUMIF('Backlog del Producto'!H$7:H$120,Iteracion!B3,'Backlog del Producto'!G$7:G$120))</f>
+        <f>IF(B3="","",SUMIF('Backlog del Producto'!G$7:G$120,Iteracion!B3,'Backlog del Producto'!F$7:F$120))</f>
         <v>32</v>
       </c>
       <c r="G3" s="16" t="s">
@@ -2665,7 +2525,7 @@
         <v>44013</v>
       </c>
       <c r="F4" s="15">
-        <f>IF(B4="","",SUMIF('Backlog del Producto'!H$7:H$120,Iteracion!B4,'Backlog del Producto'!G$7:G$120))</f>
+        <f>IF(B4="","",SUMIF('Backlog del Producto'!G$7:G$120,Iteracion!B4,'Backlog del Producto'!F$7:F$120))</f>
         <v>12</v>
       </c>
       <c r="G4" s="16" t="s">
@@ -2689,7 +2549,7 @@
         <v>44042</v>
       </c>
       <c r="F5" s="15">
-        <f>IF(B5="","",SUMIF('Backlog del Producto'!H$7:H$120,Iteracion!B5,'Backlog del Producto'!G$7:G$120))</f>
+        <f>IF(B5="","",SUMIF('Backlog del Producto'!G$7:G$120,Iteracion!B5,'Backlog del Producto'!F$7:F$120))</f>
         <v>27</v>
       </c>
       <c r="G5" s="16" t="s">
@@ -2713,7 +2573,7 @@
         <v>44057</v>
       </c>
       <c r="F6" s="15">
-        <f>IF(B6="","",SUMIF('Backlog del Producto'!H$7:H$120,Iteracion!B6,'Backlog del Producto'!G$7:G$120))</f>
+        <f>IF(B6="","",SUMIF('Backlog del Producto'!G$7:G$120,Iteracion!B6,'Backlog del Producto'!F$7:F$120))</f>
         <v>13</v>
       </c>
       <c r="G6" s="16" t="s">
@@ -2735,11 +2595,11 @@
         <v/>
       </c>
       <c r="F7" s="15">
-        <f>IF(B7="","",SUMIF('Backlog del Producto'!H$7:H$120,Iteracion!B7,'Backlog del Producto'!G$7:G$120))</f>
+        <f>IF(B7="","",SUMIF('Backlog del Producto'!G$7:G$120,Iteracion!B7,'Backlog del Producto'!F$7:F$120))</f>
         <v>0</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H7" s="18"/>
     </row>
@@ -2770,7 +2630,7 @@
         <v/>
       </c>
       <c r="F9" s="15" t="str">
-        <f>IF(B9="","",SUMIF('Backlog del Producto'!H$8:H$120,Iteracion!B9,'Backlog del Producto'!G$8:G$120))</f>
+        <f>IF(B9="","",SUMIF('Backlog del Producto'!G$8:G$120,Iteracion!B9,'Backlog del Producto'!F$8:F$120))</f>
         <v/>
       </c>
       <c r="G9" s="16" t="str">
@@ -2794,7 +2654,7 @@
         <v/>
       </c>
       <c r="F10" s="15" t="str">
-        <f>IF(B10="","",SUMIF('Backlog del Producto'!H$8:H$120,Iteracion!B10,'Backlog del Producto'!G$8:G$120))</f>
+        <f>IF(B10="","",SUMIF('Backlog del Producto'!G$8:G$120,Iteracion!B10,'Backlog del Producto'!F$8:F$120))</f>
         <v/>
       </c>
       <c r="G10" s="16" t="str">
@@ -2818,7 +2678,7 @@
         <v/>
       </c>
       <c r="F11" s="15" t="str">
-        <f>IF(B11="","",SUMIF('Backlog del Producto'!H$8:H$120,Iteracion!B11,'Backlog del Producto'!G$8:G$120))</f>
+        <f>IF(B11="","",SUMIF('Backlog del Producto'!G$8:G$120,Iteracion!B11,'Backlog del Producto'!F$8:F$120))</f>
         <v/>
       </c>
       <c r="G11" s="16" t="str">
@@ -2832,10 +2692,10 @@
       <c r="C12" s="16"/>
       <c r="D12" s="14"/>
       <c r="E12" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F12" s="15">
-        <f>SUMIF('Backlog del Producto'!H$8:H$120,"",'Backlog del Producto'!G$8:G$120)-SUMIF('Backlog del Producto'!I$8:I$120,"Eliminado",'Backlog del Producto'!G$8:G$120)</f>
+        <f>SUMIF('Backlog del Producto'!G$8:G$120,"",'Backlog del Producto'!F$8:F$120)-SUMIF('Backlog del Producto'!H$8:H$120,"Eliminado",'Backlog del Producto'!F$8:F$120)</f>
         <v>2</v>
       </c>
       <c r="G12" s="16"/>
@@ -2871,7 +2731,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G11" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Planeado,En Progreso,Terminado,No planeado"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2882,6 +2742,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -2931,26 +2795,7 @@
 </spe:Receivers>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5124E24CAF14D46B2DD609ACFD84C07" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9971b3b784abbe199b171e233c6d3889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a36e787f936117f0a8f63b0cc0186e7" ns2:_="">
     <xsd:import namespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
@@ -3095,7 +2940,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
@@ -3103,39 +2971,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617ABD26-2811-4761-B5CB-14D5621085A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3151,4 +2987,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Desarrollo/BiblioTech/documentacion/Product Backlog.xlsx
+++ b/Desarrollo/BiblioTech/documentacion/Product Backlog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOLA MUNDO\Desktop\FISI 2021-1\GESTION\GRUPAL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HOLA MUNDO\Desktop\FISI 2021-1\GESTION\GRUPAL\pClonar\CGNSTECH\Desarrollo\BiblioTech\documentacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -804,6 +804,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -815,30 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1463,8 +1463,8 @@
   </sheetPr>
   <dimension ref="B1:M70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1516,10 +1516,10 @@
       <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="58"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -1552,18 +1552,18 @@
       <c r="B5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="53" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="55"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="49"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="44" t="s">
@@ -1595,7 +1595,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="53" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="42" t="s">
@@ -1622,7 +1622,7 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="52"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="43" t="s">
         <v>38</v>
       </c>
@@ -1647,7 +1647,7 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="55" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="43" t="s">
@@ -1672,7 +1672,7 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="48"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="43" t="s">
         <v>66</v>
       </c>
@@ -1697,7 +1697,7 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="48"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="43" t="s">
         <v>67</v>
       </c>
@@ -1722,7 +1722,7 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="49"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="43" t="s">
         <v>68</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="55" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="42" t="s">
@@ -1772,7 +1772,7 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="42" t="s">
         <v>69</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="49"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="42" t="s">
         <v>70</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="55" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="42" t="s">
@@ -1849,7 +1849,7 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="48"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="42" t="s">
         <v>22</v>
       </c>
@@ -1874,7 +1874,7 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="49"/>
+      <c r="B18" s="57"/>
       <c r="C18" s="42" t="s">
         <v>23</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="55" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="42" t="s">
@@ -1919,12 +1919,12 @@
         <v>2</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="48"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="42" t="s">
         <v>77</v>
       </c>
@@ -1944,12 +1944,12 @@
         <v>2</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="49"/>
+      <c r="B21" s="57"/>
       <c r="C21" s="42" t="s">
         <v>78</v>
       </c>
@@ -1969,12 +1969,12 @@
         <v>2</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="58" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="42" t="s">
@@ -1999,7 +1999,7 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="50"/>
+      <c r="B23" s="58"/>
       <c r="C23" s="42" t="s">
         <v>79</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="50"/>
+      <c r="B24" s="58"/>
       <c r="C24" s="42" t="s">
         <v>80</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="50"/>
+      <c r="B25" s="58"/>
       <c r="C25" s="42" t="s">
         <v>81</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="50"/>
+      <c r="B26" s="58"/>
       <c r="C26" s="42" t="s">
         <v>82</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="55" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="42" t="s">
@@ -2124,7 +2124,7 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="48"/>
+      <c r="B28" s="56"/>
       <c r="C28" s="42" t="s">
         <v>83</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="48"/>
+      <c r="B29" s="56"/>
       <c r="C29" s="42" t="s">
         <v>84</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="49"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="42" t="s">
         <v>85</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="55" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="42" t="s">
@@ -2224,7 +2224,7 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="48"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="42" t="s">
         <v>86</v>
       </c>
@@ -2249,7 +2249,7 @@
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="49"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="42" t="s">
         <v>87</v>
       </c>
@@ -2274,7 +2274,7 @@
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="47" t="s">
+      <c r="B34" s="55" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="42" t="s">
@@ -2299,7 +2299,7 @@
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="49"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="42" t="s">
         <v>88</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="47" t="s">
+      <c r="B36" s="55" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="42" t="s">
@@ -2349,7 +2349,7 @@
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="49"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="42" t="s">
         <v>89</v>
       </c>
@@ -2462,19 +2462,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B31:B33"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B22:B26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J59:J60">
@@ -2932,25 +2932,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5124E24CAF14D46B2DD609ACFD84C07" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9971b3b784abbe199b171e233c6d3889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a36e787f936117f0a8f63b0cc0186e7" ns2:_="">
     <xsd:import namespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
@@ -3095,6 +3076,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
   <ds:schemaRefs>
@@ -3104,14 +3104,32 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617ABD26-2811-4761-B5CB-14D5621085A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -3127,28 +3145,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617ABD26-2811-4761-B5CB-14D5621085A8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Desarrollo/BiblioTech/documentacion/Product Backlog.xlsx
+++ b/Desarrollo/BiblioTech/documentacion/Product Backlog.xlsx
@@ -804,6 +804,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -827,18 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1463,8 +1463,8 @@
   </sheetPr>
   <dimension ref="B1:M70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1516,10 +1516,10 @@
       <c r="B3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="32"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
@@ -1552,18 +1552,18 @@
       <c r="B5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="47" t="s">
+      <c r="D5" s="55"/>
+      <c r="E5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="49"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="53"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="44" t="s">
@@ -1595,7 +1595,7 @@
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="57" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="42" t="s">
@@ -1622,7 +1622,7 @@
       <c r="J7" s="9"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="54"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="43" t="s">
         <v>38</v>
       </c>
@@ -1647,7 +1647,7 @@
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C9" s="43" t="s">
@@ -1672,7 +1672,7 @@
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="56"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="43" t="s">
         <v>66</v>
       </c>
@@ -1697,7 +1697,7 @@
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="56"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="43" t="s">
         <v>67</v>
       </c>
@@ -1722,7 +1722,7 @@
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="57"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="43" t="s">
         <v>68</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="47" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="42" t="s">
@@ -1772,7 +1772,7 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="56"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="42" t="s">
         <v>69</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="57"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="42" t="s">
         <v>70</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="47" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="42" t="s">
@@ -1849,7 +1849,7 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" s="56"/>
+      <c r="B17" s="50"/>
       <c r="C17" s="42" t="s">
         <v>22</v>
       </c>
@@ -1874,7 +1874,7 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B18" s="57"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="42" t="s">
         <v>23</v>
       </c>
@@ -1899,7 +1899,7 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="47" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="42" t="s">
@@ -1924,7 +1924,7 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B20" s="56"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="42" t="s">
         <v>77</v>
       </c>
@@ -1949,7 +1949,7 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B21" s="57"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="42" t="s">
         <v>78</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B22" s="58" t="s">
+      <c r="B22" s="49" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="42" t="s">
@@ -1994,12 +1994,12 @@
         <v>3</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" s="58"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="42" t="s">
         <v>79</v>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="58"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="42" t="s">
         <v>80</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="58"/>
+      <c r="B25" s="49"/>
       <c r="C25" s="42" t="s">
         <v>81</v>
       </c>
@@ -2074,7 +2074,7 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" s="58"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="42" t="s">
         <v>82</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="47" t="s">
         <v>54</v>
       </c>
       <c r="C27" s="42" t="s">
@@ -2124,7 +2124,7 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" s="56"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="42" t="s">
         <v>83</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" s="56"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="42" t="s">
         <v>84</v>
       </c>
@@ -2174,7 +2174,7 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" s="57"/>
+      <c r="B30" s="48"/>
       <c r="C30" s="42" t="s">
         <v>85</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="47" t="s">
         <v>57</v>
       </c>
       <c r="C31" s="42" t="s">
@@ -2224,7 +2224,7 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" s="56"/>
+      <c r="B32" s="50"/>
       <c r="C32" s="42" t="s">
         <v>86</v>
       </c>
@@ -2249,7 +2249,7 @@
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="57"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="42" t="s">
         <v>87</v>
       </c>
@@ -2274,7 +2274,7 @@
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="47" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="42" t="s">
@@ -2299,7 +2299,7 @@
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B35" s="57"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="42" t="s">
         <v>88</v>
       </c>
@@ -2324,7 +2324,7 @@
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="47" t="s">
         <v>72</v>
       </c>
       <c r="C36" s="42" t="s">
@@ -2349,7 +2349,7 @@
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="57"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="42" t="s">
         <v>89</v>
       </c>
@@ -2462,6 +2462,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B12"/>
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="B22:B26"/>
@@ -2470,11 +2475,6 @@
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B31:B33"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J59:J60">
@@ -2932,6 +2932,25 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5124E24CAF14D46B2DD609ACFD84C07" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9971b3b784abbe199b171e233c6d3889">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9a36e787f936117f0a8f63b0cc0186e7" ns2:_="">
     <xsd:import namespace="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
@@ -3076,25 +3095,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F09A1246-53BD-4D90-8F0D-F04270C7DF7F}">
   <ds:schemaRefs>
@@ -3104,6 +3104,38 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{617ABD26-2811-4761-B5CB-14D5621085A8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3119,36 +3151,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2036E817-ADB2-4FBD-A97A-810F82FD54C5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49A0D1E8-B670-4184-80F1-6022252F7605}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="01eb4bd6-a8ff-4439-b7eb-fe0a650fbd8a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2926A6BD-B9D6-43A1-AC24-40D994CC1A5B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>